--- a/Documentos/ColdTech - Plano de Ação.xlsx
+++ b/Documentos/ColdTech - Plano de Ação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sseve\Desktop\ColdTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1327c28a9523567/Documentos/ColdTech/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90587F77-E812-467B-8040-48CFCF7ADB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{90587F77-E812-467B-8040-48CFCF7ADB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81293B17-E4C8-4537-AAE4-CE003F12CED0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Ação" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>NOME DO PROJETO</t>
   </si>
@@ -245,6 +245,30 @@
   </si>
   <si>
     <t>SPRINT 3D:</t>
+  </si>
+  <si>
+    <t>Site estátido dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de solução </t>
+  </si>
+  <si>
+    <t>slides da apresentação</t>
+  </si>
+  <si>
+    <t>Toda equipe</t>
+  </si>
+  <si>
+    <t>Essencia</t>
+  </si>
+  <si>
+    <t>Criação da dashboard e linkar junto ao login</t>
+  </si>
+  <si>
+    <t>Terminar a criação do diagrama de solução</t>
+  </si>
+  <si>
+    <t>Fazer os slides para a apresentação</t>
   </si>
 </sst>
 </file>
@@ -427,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,26 +529,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -905,47 +926,47 @@
   <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="44.59765625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="42.25" customWidth="1"/>
-    <col min="9" max="9" width="3.25" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="42.19921875" customWidth="1"/>
+    <col min="9" max="9" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="22.2" customHeight="1">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="33"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -954,18 +975,18 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="22.2" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -975,7 +996,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="10.9" customHeight="1">
+    <row r="4" spans="1:16" ht="10.95" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -984,7 +1005,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:16" ht="19.95" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:16" ht="19.95" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1039,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:16" ht="52.15" customHeight="1">
+    <row r="7" spans="1:16" ht="52.2" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="44.45" customHeight="1">
+    <row r="9" spans="1:16" ht="44.4" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="70.150000000000006" customHeight="1">
+    <row r="10" spans="1:16" ht="70.2" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:16" ht="19.95" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:16" ht="19.95" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1142,7 +1163,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:16" ht="19.95" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1151,7 +1172,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:16" ht="19.95" customHeight="1">
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -1174,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:16" ht="19.95" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1208,7 +1229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="67.150000000000006" customHeight="1">
+    <row r="17" spans="2:8" ht="67.2" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="49.15" customHeight="1">
+    <row r="18" spans="2:8" ht="49.2" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="49.9" customHeight="1">
+    <row r="20" spans="2:8" ht="49.95" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="2:8" ht="19.95" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1321,7 +1342,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="2:8" ht="19.95" customHeight="1">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1330,7 +1351,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="2:8" ht="19.95" customHeight="1">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1339,7 +1360,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="2:8" ht="19.95" customHeight="1">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1382,7 +1403,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="2:8" ht="28.15" customHeight="1">
+    <row r="27" spans="2:8" ht="28.2" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1405,7 +1426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="26.45" customHeight="1">
+    <row r="28" spans="2:8" ht="26.4" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1669,32 +1690,74 @@
       <c r="G39" s="17"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="2:8" ht="25.9" customHeight="1">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="12"/>
+    <row r="40" spans="2:8" ht="25.95" customHeight="1">
+      <c r="B40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="18">
+        <v>45219</v>
+      </c>
+      <c r="G40" s="18">
+        <v>45222</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="39" customHeight="1">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="18">
+        <v>45219</v>
+      </c>
+      <c r="G41" s="18">
+        <v>45222</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="33" customHeight="1">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>45219</v>
+      </c>
+      <c r="G42" s="18">
+        <v>45222</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="36.6" customHeight="1">
       <c r="B43" s="7"/>
@@ -1705,7 +1768,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="2:8" ht="34.9" customHeight="1">
+    <row r="44" spans="2:8" ht="34.950000000000003" customHeight="1">
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1714,7 +1777,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:8" ht="37.9" customHeight="1">
+    <row r="45" spans="2:8" ht="37.950000000000003" customHeight="1">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1723,7 +1786,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:8" ht="34.15" customHeight="1">
+    <row r="46" spans="2:8" ht="34.200000000000003" customHeight="1">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1732,7 +1795,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="2:8" ht="37.9" customHeight="1">
+    <row r="47" spans="2:8" ht="37.950000000000003" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -1741,7 +1804,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:8" ht="37.15" customHeight="1">
+    <row r="48" spans="2:8" ht="37.200000000000003" customHeight="1">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1750,7 +1813,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="2:8" ht="37.15" customHeight="1">
+    <row r="49" spans="2:8" ht="37.200000000000003" customHeight="1">
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
